--- a/Diagrama De caso de uso entidad relacion/Cuadro bases de datos.xlsx
+++ b/Diagrama De caso de uso entidad relacion/Cuadro bases de datos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Desktop\Diagrama De caso de uso entidad relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Desktop\Jhonny Black\Actividades-De-Informatica-Basica-main\Actividades-De-Informatica-Basica-main\Diagrama De caso de uso entidad relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8B133-4DA4-41E7-8735-F7DB00C716D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC172363-58FD-41B4-9D50-2F91D8FCB502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B9CB3AA0-467C-494B-85E7-B69BEBDD869B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B9CB3AA0-467C-494B-85E7-B69BEBDD869B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>CodUsuario</t>
   </si>
@@ -175,6 +176,27 @@
   </si>
   <si>
     <t>Cod Informe</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>Esneider</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>Esneidersabedra89@gmail.com</t>
+  </si>
+  <si>
+    <t>Paola234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -212,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -361,6 +389,151 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -370,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,10 +580,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +620,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,65 +665,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF712E2-BD2D-47FC-B107-62CDF659C43B}">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30:J30"/>
     </sheetView>
   </sheetViews>
@@ -828,68 +1041,68 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="25"/>
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="37"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="22"/>
       <c r="I5" s="4">
         <v>1</v>
       </c>
@@ -899,27 +1112,27 @@
       <c r="K5" s="31">
         <v>45163</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="22">
+      <c r="L5" s="27"/>
+      <c r="M5" s="32">
         <v>45158</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="22"/>
       <c r="I6" s="4">
         <v>2</v>
       </c>
@@ -929,41 +1142,41 @@
       <c r="K6" s="31">
         <v>45194</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="22">
+      <c r="L6" s="27"/>
+      <c r="M6" s="32">
         <v>45190</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="22"/>
       <c r="I7" s="9">
         <v>3</v>
       </c>
       <c r="J7" s="10">
         <v>45155</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="34">
         <v>45224</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36">
         <v>45221</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" s="28" t="s">
@@ -978,76 +1191,76 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="38"/>
+      <c r="O9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="22"/>
+      <c r="M10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="22"/>
+      <c r="O10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="42"/>
+      <c r="M12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="17"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="28" t="s">
@@ -1060,76 +1273,76 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="36" t="s">
+      <c r="L14" s="25"/>
+      <c r="M14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="14">
+      <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14">
+      <c r="J15" s="22"/>
+      <c r="K15" s="21">
         <v>25</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14">
+      <c r="L15" s="22"/>
+      <c r="M15" s="21">
         <v>1</v>
       </c>
-      <c r="N15" s="15"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="14">
+      <c r="I16" s="21">
         <v>2</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14">
+      <c r="J16" s="22"/>
+      <c r="K16" s="21">
         <v>10</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14">
+      <c r="L16" s="22"/>
+      <c r="M16" s="21">
         <v>1</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="14">
+      <c r="I17" s="21">
         <v>3</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14">
+      <c r="J17" s="22"/>
+      <c r="K17" s="21">
         <v>22</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14">
+      <c r="L17" s="22"/>
+      <c r="M17" s="21">
         <v>1</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="13" t="s">
         <v>41</v>
       </c>
@@ -1144,14 +1357,14 @@
       </c>
     </row>
     <row r="20" spans="9:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="16">
+      <c r="I20" s="26">
         <v>1</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="39" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M20" s="4">
@@ -1163,85 +1376,85 @@
     </row>
     <row r="22" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="14">
+      <c r="I25" s="21">
         <v>112</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="14">
+      <c r="I26" s="21">
         <v>113</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I27" s="21">
         <v>114</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="3">
         <v>3</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="34"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="13" t="s">
@@ -1260,10 +1473,10 @@
       </c>
     </row>
     <row r="33" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="42">
+      <c r="I33" s="18">
         <v>2</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1277,41 +1490,20 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
@@ -1324,20 +1516,41 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1348,4 +1561,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15352F66-04E3-42D7-BEB5-7171C30F3C3A}">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="46">
+        <v>14</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="61">
+        <v>45</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{D9BF90B4-BCDB-47B6-B57A-FC32DF83F57C}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{B5C15596-55CF-40AD-AE19-2EE9A4DA7D32}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{744B08EC-E3B8-43CD-8A95-D92B71B48971}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>